--- a/Calcul resistance.xlsx
+++ b/Calcul resistance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a940590\Documents\GitHub\VMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A09815C-2AF2-4AAE-8E8F-488C161AC381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E556B37-EAD8-48B1-9062-57B0FF4F71D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D5E2F633-5807-420B-BF3D-0E5124144B9E}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,14 +431,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>(0.74*C3)/0.26</f>
         <v>7684.6153846153848</v>
@@ -459,7 +459,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -467,7 +467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>(0.236*C6)/0.764</f>
         <v>2378.5340314136124</v>
@@ -476,12 +476,12 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -489,7 +489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>(0.5*C11)/0.5</f>
         <v>7700</v>
@@ -502,7 +502,7 @@
         <v>2.5024999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>(0.455*C14)/0.545</f>
         <v>6428.440366972477</v>
